--- a/配置文档/子弹及效果相关/爆炸配置.xlsx
+++ b/配置文档/子弹及效果相关/爆炸配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20160" windowHeight="7665" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ExplodeData_爆炸基础数据" sheetId="3" r:id="rId1"/>
@@ -1097,14 +1097,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1455,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1475,159 +1472,159 @@
   </cols>
   <sheetData>
     <row r="1" ht="128.25" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>2</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="4:4">
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1643,13 +1640,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
     <col min="2" max="3" width="14.675" customWidth="1"/>
@@ -1660,95 +1657,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2322,19 +2324,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>128</v>
       </c>
     </row>
